--- a/صيدليات دكتور مصطفي طلعت_2026-01-06_15-47.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-06_15-47.xlsx
@@ -47,6 +47,12 @@
     <t>1:1</t>
   </si>
   <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>BIOVIT 12 DEPOT 2 AMP</t>
   </si>
   <si>
@@ -65,6 +71,12 @@
     <t>CLAVIMOX 228.5MG/5ML PD. FOR ORAL SUSP. 70ML</t>
   </si>
   <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -116,12 +128,21 @@
     <t>HAEMOKION 10MG/ML 3 AMP.</t>
   </si>
   <si>
+    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
+  </si>
+  <si>
     <t>IVYROSPAN SYRUP 100 ML</t>
   </si>
   <si>
+    <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
+  </si>
+  <si>
     <t>MUCOSTA 100MG 20 TAB</t>
   </si>
   <si>
+    <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
     <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
   </si>
   <si>
@@ -131,18 +152,12 @@
     <t>OXYMET 0.05% ADULT NASAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>PSYCHOLANZ 12/50 MG 30 CAPS.</t>
   </si>
   <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>SOLOVIT VIT E CAP</t>
   </si>
   <si>
@@ -176,7 +191,7 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>7797:0</t>
+    <t>7795:0</t>
   </si>
   <si>
     <t xml:space="preserve">بلاستر 2سم </t>
@@ -191,10 +206,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>-1:0</t>
-  </si>
-  <si>
-    <t>19:0</t>
+    <t>-2:0</t>
+  </si>
+  <si>
+    <t>21:0</t>
   </si>
   <si>
     <t>شامبو لوريال الفيفا</t>
@@ -860,7 +875,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>-28</v>
+        <v>24</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
@@ -880,13 +895,13 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>69</v>
+        <v>-28</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
@@ -898,7 +913,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B8" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -906,17 +921,17 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -932,17 +947,17 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -950,7 +965,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -958,17 +973,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -990,7 +1005,7 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>16</v>
+        <v>27.5</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
@@ -1016,11 +1031,11 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1036,17 +1051,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1068,11 +1083,11 @@
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1088,17 +1103,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1106,7 +1121,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1114,17 +1129,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1132,7 +1147,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1140,17 +1155,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>30.670000000000002</v>
+        <v>109</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1158,7 +1173,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1166,13 +1181,13 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
@@ -1184,7 +1199,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1192,13 +1207,13 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>22</v>
+        <v>30.670000000000002</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
@@ -1210,7 +1225,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1224,7 +1239,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
@@ -1236,7 +1251,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1244,17 +1259,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1262,7 +1277,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1270,17 +1285,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>-57</v>
+        <v>36</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1288,7 +1303,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1302,11 +1317,11 @@
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1314,7 +1329,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1322,13 +1337,13 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
@@ -1340,7 +1355,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1348,13 +1363,13 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
@@ -1366,7 +1381,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1374,17 +1389,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>67</v>
+        <v>-57</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1392,7 +1407,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1400,17 +1415,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>7.0499999999999998</v>
+        <v>39</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1432,11 +1447,11 @@
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>-185</v>
+        <v>43</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1452,17 +1467,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1478,17 +1493,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>45.5</v>
+        <v>15</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1496,7 +1511,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1504,17 +1519,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1522,7 +1537,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1530,17 +1545,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>23</v>
+        <v>7.0499999999999998</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1548,7 +1563,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1562,7 +1577,7 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>122</v>
+        <v>-185</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
@@ -1574,7 +1589,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1582,17 +1597,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1600,7 +1615,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1608,13 +1623,13 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>17</v>
+        <v>45.5</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
@@ -1626,7 +1641,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1634,17 +1649,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1652,7 +1667,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1660,13 +1675,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -1678,7 +1693,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1686,13 +1701,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
@@ -1704,7 +1719,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1712,17 +1727,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>61</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1730,7 +1745,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1738,17 +1753,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1756,7 +1771,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1764,17 +1779,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1782,7 +1797,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1790,13 +1805,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>68.599999999999994</v>
+        <v>15</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -1808,7 +1823,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1816,51 +1831,181 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" ht="25.5" customHeight="1">
-      <c r="K44" s="10">
-        <v>1366.8199999999999</v>
-      </c>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" ht="24.75" customHeight="1">
+      <c r="A44" s="6">
+        <v>41</v>
+      </c>
+      <c t="s" r="B44" s="7">
+        <v>64</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c t="s" r="H44" s="8">
+        <v>65</v>
+      </c>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="9">
+        <v>42</v>
+      </c>
+      <c r="M44" s="9"/>
+      <c t="s" r="N44" s="7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" ht="25.5" customHeight="1">
+      <c r="A45" s="6">
+        <v>42</v>
+      </c>
+      <c t="s" r="B45" s="7">
         <v>67</v>
       </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c t="s" r="F45" s="12">
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c t="s" r="H45" s="8">
+        <v>9</v>
+      </c>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="9">
+        <v>150</v>
+      </c>
+      <c r="M45" s="9"/>
+      <c t="s" r="N45" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" ht="24.75" customHeight="1">
+      <c r="A46" s="6">
+        <v>43</v>
+      </c>
+      <c t="s" r="B46" s="7">
         <v>68</v>
       </c>
-      <c r="G45" s="12"/>
-      <c r="H45" s="13"/>
-      <c t="s" r="I45" s="14">
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c t="s" r="H46" s="8">
+        <v>63</v>
+      </c>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="9">
+        <v>85</v>
+      </c>
+      <c r="M46" s="9"/>
+      <c t="s" r="N46" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="6">
+        <v>44</v>
+      </c>
+      <c t="s" r="B47" s="7">
         <v>69</v>
       </c>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="14"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c t="s" r="H47" s="8">
+        <v>9</v>
+      </c>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="9">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="M47" s="9"/>
+      <c t="s" r="N47" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" ht="25.5" customHeight="1">
+      <c r="A48" s="6">
+        <v>45</v>
+      </c>
+      <c t="s" r="B48" s="7">
+        <v>70</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c t="s" r="H48" s="8">
+        <v>71</v>
+      </c>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="9">
+        <v>70</v>
+      </c>
+      <c r="M48" s="9"/>
+      <c t="s" r="N48" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="K49" s="10">
+        <v>1536.3199999999999</v>
+      </c>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="11">
+        <v>72</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c t="s" r="F50" s="12">
+        <v>73</v>
+      </c>
+      <c r="G50" s="12"/>
+      <c r="H50" s="13"/>
+      <c t="s" r="I50" s="14">
+        <v>74</v>
+      </c>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="131">
+  <mergeCells count="146">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1988,10 +2133,25 @@
     <mergeCell ref="B43:G43"/>
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="I45:N45"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="I50:N50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
